--- a/output/emis_table_DyrSamlet_KVIK.xlsx
+++ b/output/emis_table_DyrSamlet_KVIK.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2024-KVIK/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_CDE2F225009966E4DC653EFA5F3D01849AD86DA6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DC08F2C-370E-45F1-AD25-5ABA9295FF03}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_DCEED23900C965D970C430FA5F3D0105029A5807" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28DAFDB0-A146-4951-A5C9-6D7E2D90BE11}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="240" windowWidth="19410" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25455" yWindow="1245" windowWidth="22410" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Scenarie</t>
   </si>
@@ -65,9 +78,6 @@
   </si>
   <si>
     <t>forsuring</t>
-  </si>
-  <si>
-    <t>kontrol</t>
   </si>
   <si>
     <t>køling</t>
@@ -431,18 +441,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,14 +480,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -500,13 +513,21 @@
         <v>1.54617842422005E-2</v>
       </c>
       <c r="I2">
+        <f t="shared" ref="I2:I16" si="0">G2*28</f>
+        <v>62.715499912242805</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J16" si="1">H2*265</f>
+        <v>4.0973728241831324</v>
+      </c>
+      <c r="K2">
         <v>18</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>22.805850126484199</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -532,13 +553,21 @@
         <v>1.37918674719711E-2</v>
       </c>
       <c r="I3">
+        <f t="shared" si="0"/>
+        <v>35.252824638788958</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>3.6548448800723414</v>
+      </c>
+      <c r="K3">
         <v>29</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>30.001760836072201</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -564,13 +593,21 @@
         <v>4.9880028857492799E-2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>84.520637799874351</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>13.218207647235591</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -596,13 +633,21 @@
         <v>5.2448936371066998E-2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>47.33866700614184</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>13.898968138332755</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -628,13 +673,21 @@
         <v>4.4253743727017798E-2</v>
       </c>
       <c r="I6">
+        <f t="shared" si="0"/>
+        <v>41.614194247245479</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>11.727242087659716</v>
+      </c>
+      <c r="K6">
         <v>2.30006099933571</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -660,129 +713,181 @@
         <v>4.9486490513503498E-2</v>
       </c>
       <c r="I7">
+        <f t="shared" si="0"/>
+        <v>30.110724828364319</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>13.113919986078427</v>
+      </c>
+      <c r="K7">
         <v>6.1805000000000003</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="C8">
+        <v>51.779184483145897</v>
+      </c>
       <c r="D8">
-        <v>0</v>
+        <v>3.2311852445788398</v>
       </c>
       <c r="E8">
-        <v>1.9298886553113701</v>
+        <v>1.61858273310051</v>
       </c>
       <c r="F8">
-        <v>3.0241820884083199</v>
+        <v>3.2305352738040098</v>
       </c>
       <c r="G8">
-        <v>4.95407074371969</v>
+        <v>4.8491180069045203</v>
       </c>
       <c r="H8">
-        <v>4.9880028857492799E-2</v>
+        <v>4.31820703688321E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>135.77530419332658</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>11.443248647740507</v>
+      </c>
+      <c r="K8">
+        <v>4.6389471027398601</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1630.6042952724299</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>118.380594998852</v>
       </c>
       <c r="E9">
-        <v>0.847481741473606</v>
+        <v>1.77107150124971</v>
       </c>
       <c r="F9">
-        <v>2.3421803814366098</v>
+        <v>0.14032891560656199</v>
       </c>
       <c r="G9">
-        <v>3.18966212291022</v>
+        <v>1.9114004168562699</v>
       </c>
       <c r="H9">
-        <v>5.2448936371066998E-2</v>
+        <v>8.7638257535397699E-3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>53.519211671975555</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2.3224138246880388</v>
+      </c>
+      <c r="K9">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <v>23.772482409870001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
-        <v>51.779184483145897</v>
+        <v>998.73917903119002</v>
       </c>
       <c r="D10">
-        <v>3.2311852445788398</v>
+        <v>59.457400945474298</v>
       </c>
       <c r="E10">
-        <v>1.61858273310051</v>
+        <v>1.9298886553113701</v>
       </c>
       <c r="F10">
-        <v>3.2305352738040098</v>
+        <v>0.907254626522496</v>
       </c>
       <c r="G10">
-        <v>4.8491180069045203</v>
+        <v>2.8371432818338702</v>
       </c>
       <c r="H10">
-        <v>4.31820703688321E-2</v>
+        <v>4.9187832583261502E-2</v>
       </c>
       <c r="I10">
-        <v>4.6389471027398601</v>
+        <f t="shared" si="0"/>
+        <v>79.440011891348362</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>13.034775634564298</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>1630.6042952724299</v>
+        <v>732.02455545617602</v>
       </c>
       <c r="D11">
-        <v>118.380594998852</v>
+        <v>46.133259769499602</v>
       </c>
       <c r="E11">
-        <v>1.77107150124971</v>
+        <v>0.847481741473606</v>
       </c>
       <c r="F11">
-        <v>0.14032891560656199</v>
+        <v>0.70265411443098302</v>
       </c>
       <c r="G11">
-        <v>1.9114004168562699</v>
+        <v>1.5501358559045899</v>
       </c>
       <c r="H11">
-        <v>8.7638257535397699E-3</v>
+        <v>5.15941277169462E-2</v>
       </c>
       <c r="I11">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>43.403803965328521</v>
       </c>
       <c r="J11">
-        <v>23.772482409870001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>13.672443844990744</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -790,95 +895,119 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>998.73917903119002</v>
+        <v>186.760242419348</v>
       </c>
       <c r="D12">
-        <v>59.457400945474298</v>
+        <v>16.0997937208416</v>
       </c>
       <c r="E12">
+        <v>0.17237812655885701</v>
+      </c>
+      <c r="F12">
+        <v>4.2571257930661499</v>
+      </c>
+      <c r="G12">
+        <v>4.4295039196250103</v>
+      </c>
+      <c r="H12">
+        <v>5.1882419035502898E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>124.02610974950029</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>13.748841044408268</v>
+      </c>
+      <c r="K12">
+        <v>8.9615058676995094</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>568.947410880961</v>
+      </c>
+      <c r="D13">
+        <v>33.870839390173103</v>
+      </c>
+      <c r="E13">
         <v>1.9298886553113701</v>
       </c>
-      <c r="F12">
-        <v>0.907254626522496</v>
-      </c>
-      <c r="G12">
-        <v>2.8371432818338702</v>
-      </c>
-      <c r="H12">
-        <v>4.9187832583261502E-2</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>732.02455545617602</v>
-      </c>
-      <c r="D13">
-        <v>46.133259769499602</v>
-      </c>
-      <c r="E13">
-        <v>0.847481741473606</v>
-      </c>
       <c r="F13">
-        <v>0.70265411443098302</v>
+        <v>1.81450925304499</v>
       </c>
       <c r="G13">
-        <v>1.5501358559045899</v>
+        <v>3.7443979083563699</v>
       </c>
       <c r="H13">
-        <v>5.15941277169462E-2</v>
+        <v>4.9880028857492799E-2</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>104.84314143397836</v>
       </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>13.218207647235591</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>186.760242419348</v>
+        <v>416.24580366011799</v>
       </c>
       <c r="D14">
-        <v>16.0997937208416</v>
+        <v>26.232420272090099</v>
       </c>
       <c r="E14">
-        <v>0.17237812655885701</v>
+        <v>0.847481741473606</v>
       </c>
       <c r="F14">
-        <v>4.2571257930661499</v>
+        <v>1.4053082288619601</v>
       </c>
       <c r="G14">
-        <v>4.4295039196250103</v>
+        <v>2.25278997033557</v>
       </c>
       <c r="H14">
-        <v>5.1882419035502898E-2</v>
+        <v>5.2448936371066998E-2</v>
       </c>
       <c r="I14">
-        <v>8.9615058676995094</v>
+        <f t="shared" si="0"/>
+        <v>63.078119169395961</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>13.898968138332755</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -886,31 +1015,39 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>568.947410880961</v>
+        <v>134.804526030901</v>
       </c>
       <c r="D15">
-        <v>33.870839390173103</v>
+        <v>9.0993753911852409</v>
       </c>
       <c r="E15">
-        <v>1.9298886553113701</v>
+        <v>0.92591452773566396</v>
       </c>
       <c r="F15">
-        <v>1.81450925304499</v>
+        <v>3.6993550803055402</v>
       </c>
       <c r="G15">
-        <v>3.7443979083563699</v>
+        <v>4.6252696080412097</v>
       </c>
       <c r="H15">
-        <v>4.9880028857492799E-2</v>
+        <v>4.9992430940995099E-2</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>129.50754902515388</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>13.247994199363701</v>
+      </c>
+      <c r="K15">
+        <v>7.1577494081264996</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -918,31 +1055,39 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>416.24580366011799</v>
+        <v>152.22814165564199</v>
       </c>
       <c r="D16">
-        <v>26.232420272090099</v>
+        <v>20.310698702968701</v>
       </c>
       <c r="E16">
-        <v>0.847481741473606</v>
+        <v>0.138710445977656</v>
       </c>
       <c r="F16">
-        <v>1.4053082288619601</v>
+        <v>2.6974042011294701</v>
       </c>
       <c r="G16">
-        <v>2.25278997033557</v>
+        <v>2.8361146471071299</v>
       </c>
       <c r="H16">
-        <v>5.2448936371066998E-2</v>
+        <v>5.3602479195329497E-2</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>79.411210118999634</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>14.204656986762316</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -950,31 +1095,39 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>134.804526030901</v>
+        <v>1817.416098787</v>
       </c>
       <c r="D17">
-        <v>9.2766657485173702</v>
+        <v>137.52738323042399</v>
       </c>
       <c r="E17">
-        <v>0.933882572153373</v>
+        <v>1.1403855969407199</v>
       </c>
       <c r="F17">
-        <v>3.6853832328558802</v>
+        <v>0.15340727151351599</v>
       </c>
       <c r="G17">
-        <v>4.6192658050092499</v>
+        <v>1.2937928684542399</v>
       </c>
       <c r="H17">
-        <v>4.9742560352630097E-2</v>
+        <v>1.54315554042651E-2</v>
       </c>
       <c r="I17">
-        <v>6.9488009084573497</v>
+        <f>G17*28</f>
+        <v>36.226200316718717</v>
       </c>
       <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <f>H17*265</f>
+        <v>4.0893621821302517</v>
+      </c>
+      <c r="K17">
+        <v>18</v>
+      </c>
+      <c r="L17">
+        <v>25.988027113569999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -982,31 +1135,39 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <v>152.22814165564199</v>
+        <v>667.54890274212596</v>
       </c>
       <c r="D18">
-        <v>20.310698702968701</v>
+        <v>125.44537545387399</v>
       </c>
       <c r="E18">
-        <v>0.138710445977656</v>
+        <v>0.22959634588150199</v>
       </c>
       <c r="F18">
-        <v>2.6974042011294701</v>
+        <v>0.35081848616507799</v>
       </c>
       <c r="G18">
-        <v>2.8361146471071299</v>
+        <v>0.58041483204657995</v>
       </c>
       <c r="H18">
-        <v>5.3602479195329497E-2</v>
+        <v>1.4945410296233599E-2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <f t="shared" ref="I18:I24" si="2">G18*28</f>
+        <v>16.251615297304237</v>
       </c>
       <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J18:J24" si="3">H18*265</f>
+        <v>3.960533728501904</v>
+      </c>
+      <c r="K18">
+        <v>29</v>
+      </c>
+      <c r="L18">
+        <v>31.730958670949299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1014,31 +1175,39 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>1817.416098787</v>
+        <v>1217.1018103403101</v>
       </c>
       <c r="D19">
-        <v>137.21955693241799</v>
+        <v>75.522362938527195</v>
       </c>
       <c r="E19">
-        <v>1.14754361988273</v>
+        <v>0.92591452773566396</v>
       </c>
       <c r="F19">
-        <v>0.15291794082943</v>
+        <v>1.3317678289099999</v>
       </c>
       <c r="G19">
-        <v>1.3004615607121599</v>
+        <v>2.2576823566456601</v>
       </c>
       <c r="H19">
-        <v>1.53605206833682E-2</v>
+        <v>4.9499810155083201E-2</v>
       </c>
       <c r="I19">
-        <v>17.4745453103213</v>
+        <f t="shared" si="2"/>
+        <v>63.215105986078484</v>
       </c>
       <c r="J19">
-        <v>25.905131831227401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>13.117449691097049</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1046,31 +1215,39 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>667.54890274212596</v>
+        <v>514.51628153115701</v>
       </c>
       <c r="D20">
-        <v>125.44537545387399</v>
+        <v>68.648181987208801</v>
       </c>
       <c r="E20">
-        <v>0.22959634588150199</v>
+        <v>0.138710445977656</v>
       </c>
       <c r="F20">
-        <v>0.35081848616507799</v>
+        <v>0.97106551240660799</v>
       </c>
       <c r="G20">
-        <v>0.58041483204657995</v>
+        <v>1.1097759583842599</v>
       </c>
       <c r="H20">
-        <v>1.4945410296233599E-2</v>
+        <v>5.3602479195329497E-2</v>
       </c>
       <c r="I20">
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>31.073726834759277</v>
       </c>
       <c r="J20">
-        <v>31.730958670949299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>14.204656986762316</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1078,31 +1255,39 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>1217.1018103403101</v>
+        <v>1318.12846158398</v>
       </c>
       <c r="D21">
-        <v>75.350740548951507</v>
+        <v>81.791165890644294</v>
       </c>
       <c r="E21">
-        <v>0.94331320647813</v>
+        <v>0.92591452773566396</v>
       </c>
       <c r="F21">
-        <v>1.3241327310450299</v>
+        <v>1.1098065240916599</v>
       </c>
       <c r="G21">
-        <v>2.2674459375231599</v>
+        <v>2.0357210518273301</v>
       </c>
       <c r="H21">
-        <v>4.9407402535044997E-2</v>
+        <v>4.9296465184502897E-2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>57.000189451165241</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>13.063563273893267</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1110,31 +1295,39 @@
         <v>12</v>
       </c>
       <c r="C22">
-        <v>514.51628153115701</v>
+        <v>550.15473195400102</v>
       </c>
       <c r="D22">
-        <v>68.648181987208801</v>
+        <v>73.403162379838705</v>
       </c>
       <c r="E22">
         <v>0.138710445977656</v>
       </c>
       <c r="F22">
-        <v>0.97106551240660799</v>
+        <v>0.80922126033884001</v>
       </c>
       <c r="G22">
-        <v>1.1097759583842599</v>
+        <v>0.94793170631649604</v>
       </c>
       <c r="H22">
-        <v>5.3602479195329497E-2</v>
+        <v>5.27596817057732E-2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>26.542087776861891</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>13.981315652029897</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1142,31 +1335,39 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>1318.12846158398</v>
+        <v>814.365065395952</v>
       </c>
       <c r="D23">
-        <v>81.5882126643844</v>
+        <v>50.5321522906073</v>
       </c>
       <c r="E23">
-        <v>0.94331320647813</v>
+        <v>0.92591452773566396</v>
       </c>
       <c r="F23">
-        <v>1.10344394253752</v>
+        <v>2.2196130481833301</v>
       </c>
       <c r="G23">
-        <v>2.04675714901565</v>
+        <v>3.1455275759189898</v>
       </c>
       <c r="H23">
-        <v>4.9187832583261502E-2</v>
+        <v>4.9992430940995099E-2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>88.074772125731712</v>
       </c>
       <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>13.247994199363701</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1174,91 +1375,35 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>550.15473195400102</v>
+        <v>378.65822907784002</v>
       </c>
       <c r="D24">
-        <v>73.403162379838705</v>
+        <v>50.5216257556188</v>
       </c>
       <c r="E24">
         <v>0.138710445977656</v>
       </c>
       <c r="F24">
-        <v>0.80922126033884001</v>
+        <v>1.61844252067768</v>
       </c>
       <c r="G24">
-        <v>0.94793170631649604</v>
+        <v>1.75715296665534</v>
       </c>
       <c r="H24">
-        <v>5.27596817057732E-2</v>
+        <v>5.3602479195329497E-2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>49.20028306634952</v>
       </c>
       <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25">
-        <v>814.365065395952</v>
-      </c>
-      <c r="D25">
-        <v>50.508350260662297</v>
-      </c>
-      <c r="E25">
-        <v>0.94331320647813</v>
-      </c>
-      <c r="F25">
-        <v>2.2068878850750502</v>
-      </c>
-      <c r="G25">
-        <v>3.1502010915531802</v>
-      </c>
-      <c r="H25">
-        <v>4.9880028857492799E-2</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>378.65822907784002</v>
-      </c>
-      <c r="D26">
-        <v>50.5216257556188</v>
-      </c>
-      <c r="E26">
-        <v>0.138710445977656</v>
-      </c>
-      <c r="F26">
-        <v>1.61844252067768</v>
-      </c>
-      <c r="G26">
-        <v>1.75715296665534</v>
-      </c>
-      <c r="H26">
-        <v>5.3602479195329497E-2</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>14.204656986762316</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>0</v>
       </c>
     </row>
